--- a/src/main/java/localhost/bookstore/qa/testdata/LoginData.xlsx
+++ b/src/main/java/localhost/bookstore/qa/testdata/LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYZEN\IdeaProjects\Bookstore_LocalHost_React\src\main\java\localhost\bookstore\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689A641A-AEB9-4B6D-9639-52068407B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE128768-E99B-4D44-A58A-CE26C71D3CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1AC5C180-7E7C-4187-916F-DB8AABC434FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1AC5C180-7E7C-4187-916F-DB8AABC434FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>WhyHelo@097</t>
+  </si>
+  <si>
+    <t>isValidCredentials</t>
   </si>
 </sst>
 </file>
@@ -411,48 +414,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E9C4EF-6037-42E6-9CD5-49811C966F65}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
